--- a/mhe_score.xlsx
+++ b/mhe_score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8EE8B4D-F0C4-47CB-B537-1936D87EF483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB522D2-10FE-406D-B302-60DE21793A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35CFB33E-7EE6-4749-9075-744931E1F3B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>V</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Alt. Score</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -154,6 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,223 +472,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6699DA2F-43E7-4D1B-A94B-BB2BF614CA3D}">
-  <dimension ref="K1:S9"/>
+  <dimension ref="K1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>3</v>
-      </c>
-      <c r="M1" s="2">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1">
-        <v>5</v>
-      </c>
-      <c r="O1" s="2">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1">
-        <v>9</v>
-      </c>
-      <c r="S1" s="2">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="1" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
         <v>5</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="2">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1">
+        <v>9</v>
+      </c>
+      <c r="S2" s="2">
         <v>10</v>
-      </c>
-      <c r="O2" s="4">
-        <v>14</v>
-      </c>
-      <c r="P2" s="3">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>27</v>
-      </c>
-      <c r="R2" s="3">
-        <v>36</v>
-      </c>
-      <c r="S2" s="4">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="4">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4">
+        <v>14</v>
+      </c>
+      <c r="P3" s="3">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>27</v>
+      </c>
+      <c r="R3" s="3">
+        <v>36</v>
+      </c>
+      <c r="S3" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:S3" si="0">(L1*(L1-1))/2</f>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:S4" si="0">(L2*(L2-1))/2</f>
         <v>3</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N4" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O4" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P4" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R4" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K4" t="s">
+    <row r="5" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="5">
-        <f>(L1*1000*L2/L3)-((L3-L2)*1000)</f>
+      <c r="L5" s="5">
+        <f>(L2*1000*L3/L4)-((L4-L3)*1000)</f>
         <v>3000</v>
       </c>
-      <c r="M4" s="6">
-        <f>(M1*1000*M2/M3)-((M3-M2)*1000)</f>
+      <c r="M5" s="6">
+        <f>(M2*1000*M3/M4)-((M4-M3)*1000)</f>
         <v>2333.3333333333335</v>
       </c>
-      <c r="N4" s="5">
-        <f t="shared" ref="N4:S4" si="1">(N1*1000*N2/N3)-((N3-N2)*1000)</f>
+      <c r="N5" s="5">
+        <f t="shared" ref="N5:S5" si="1">(N2*1000*N3/N4)-((N4-N3)*1000)</f>
         <v>5000</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O5" s="6">
         <f t="shared" si="1"/>
         <v>4600</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P5" s="5">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q5" s="6">
         <f t="shared" si="1"/>
         <v>6714.2857142857147</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R5" s="5">
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S5" s="6">
         <f t="shared" si="1"/>
         <v>8777.7777777777774</v>
       </c>
     </row>
-    <row r="5" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>39</v>
-      </c>
-      <c r="M6" s="2">
-        <v>40</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="L6" s="7">
+        <f>(L2*1000*L3/L4)</f>
+        <v>3000</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" ref="M6:S6" si="2">(M2*1000*M3/M4)</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="2"/>
+        <v>5600</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="2"/>
+        <v>7714.2857142857147</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="2"/>
+        <v>9777.7777777777774</v>
+      </c>
     </row>
-    <row r="7" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="K7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>741</v>
-      </c>
-      <c r="M7" s="4">
-        <v>779</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="4"/>
-    </row>
+    <row r="7" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
+        <v>40</v>
+      </c>
+      <c r="N8" s="1">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>40</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>741</v>
+      </c>
+      <c r="M9" s="4">
+        <v>59</v>
+      </c>
+      <c r="N9" s="3">
+        <v>38</v>
+      </c>
+      <c r="O9" s="4">
+        <v>39</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" ref="L8:S8" si="2">(L6*(L6-1))/2</f>
+      <c r="L10" s="3">
+        <f t="shared" ref="L10:M10" si="3">(L8*(L8-1))/2</f>
         <v>741</v>
       </c>
-      <c r="M8" s="4">
-        <f t="shared" si="2"/>
+      <c r="M10" s="4">
+        <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10:O10" si="4">(N8*(N8-1))/2</f>
+        <v>741</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="4"/>
+        <v>780</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
     </row>
-    <row r="9" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K9" t="s">
+    <row r="11" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="5">
-        <f>(L6*1000*L7/L8)-((L8-L7)*1000)</f>
+      <c r="L11" s="5">
+        <f>(L8*1000*L9/L10)-((L10-L9)*1000)</f>
         <v>39000</v>
       </c>
-      <c r="M9" s="6">
-        <f>(M6*1000*M7/M8)-((M8-M7)*1000)</f>
-        <v>38948.717948717946</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="6"/>
+      <c r="M11" s="6">
+        <f>(M8*1000*M9/M10)-((M10-M9)*1000)</f>
+        <v>-717974.358974359</v>
+      </c>
+      <c r="N11" s="5">
+        <f>(N8*1000*N9/N10)-((N10-N9)*1000)</f>
+        <v>-701000</v>
+      </c>
+      <c r="O11" s="6">
+        <f>(O8*1000*O9/O10)-((O10-O9)*1000)</f>
+        <v>-739000</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7">
+        <f>(L8*1000*L9/L10)</f>
+        <v>39000</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" ref="M12:O12" si="5">(M8*1000*M9/M10)</f>
+        <v>3025.6410256410259</v>
+      </c>
+      <c r="N12" s="7">
+        <f>(N8*1000*N9/N10)</f>
+        <v>2000</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
